--- a/Project2/Development/gridsensitivity.xlsx
+++ b/Project2/Development/gridsensitivity.xlsx
@@ -270,6 +270,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -279,6 +283,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -286,19 +299,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -333,7 +333,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1618,11 +1617,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212010040"/>
-        <c:axId val="212009648"/>
+        <c:axId val="137147856"/>
+        <c:axId val="152806152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="212010040"/>
+        <c:axId val="137147856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1679,12 +1678,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212009648"/>
+        <c:crossAx val="152806152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212009648"/>
+        <c:axId val="152806152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1741,7 +1740,373 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212010040"/>
+        <c:crossAx val="137147856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$28:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$28:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36435</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65414</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>148329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>416490</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="235552488"/>
+        <c:axId val="235552096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="235552488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="235552096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="235552096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="235552488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1791,6 +2156,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2346,6 +2751,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2360,6 +3281,41 @@
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>189</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4454,291 +5410,291 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:H25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="11">
+      <c r="B3" s="5">
         <v>25</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="5">
         <v>50</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="5">
         <v>100</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="5">
         <v>150</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="5">
         <v>200</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="5">
         <v>250</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="5">
         <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="6">
         <v>3.5259999999999998</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>3.5287000000000002</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="6">
         <v>3.5293999999999999</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="6">
         <v>3.5295000000000001</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="6">
         <v>3.5295999999999998</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="6">
         <v>3.5295999999999998</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="6">
         <v>3.5295999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="6">
         <v>2.992</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>2.9980000000000002</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="6">
         <v>2.9994999999999998</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="6">
         <v>2.9998</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="6">
         <v>2.9998999999999998</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="6">
         <v>2.9998999999999998</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="4">
         <v>6</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="6">
         <v>2.9819</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>2.9954999999999998</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="6">
         <v>2.9988999999999999</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="6">
         <v>2.9994999999999998</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="6">
         <v>2.9996999999999998</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="6">
         <v>2.9998</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="6">
         <v>2.9998999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="4">
         <v>8</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="6">
         <v>2.7829000000000002</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="6">
         <v>2.9918</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="6">
         <v>2.9980000000000002</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="6">
         <v>2.9990999999999999</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="6">
         <v>2.9994999999999998</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="6">
         <v>2.9996999999999998</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="6">
         <v>2.9998</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="4">
         <v>10</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="6">
         <v>2.9491000000000001</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>2.9874000000000001</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <v>2.9969000000000001</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="6">
         <v>2.9986000000000002</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="6">
         <v>2.9992000000000001</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="6">
         <v>2.9994999999999998</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="6">
         <v>2.9996999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="11">
+      <c r="B12" s="5">
         <v>25</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="5">
         <v>50</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="5">
         <v>100</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="5">
         <v>150</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="5">
         <v>200</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="5">
         <v>250</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="5">
         <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="5">
         <v>4</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="6">
         <v>6.9630999999999998</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="6">
         <v>6.9934000000000003</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="6">
         <v>7.0008999999999997</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="6">
         <v>7.0023</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="6">
         <v>7.0027999999999997</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="6">
         <v>7.0030000000000001</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="6">
         <v>7.0003000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="5">
         <v>6</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="6">
         <v>6.9088000000000003</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="6">
         <v>6.9774000000000003</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="6">
         <v>6.9943999999999997</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="6">
         <v>6.9974999999999996</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="6">
         <v>6.9985999999999997</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="6">
         <v>6.9991000000000003</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="6">
         <v>6.9993999999999996</v>
       </c>
       <c r="I14">
@@ -4746,181 +5702,181 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="5">
         <v>8</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="6">
         <v>5.9036999999999997</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="6">
         <v>6.9598000000000004</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="6">
         <v>6.99</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="6">
         <v>6.9955999999999996</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="6">
         <v>6.9974999999999996</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="6">
         <v>6.9984000000000002</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="6">
         <v>6.9988999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="5">
         <v>10</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="6">
         <v>6.7398999999999996</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="6">
         <v>6.9368999999999996</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="6">
         <v>6.9843000000000002</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="6">
         <v>6.9930000000000003</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="6">
         <v>6.9960000000000004</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="6">
         <v>6.6675000000000004</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="6">
         <v>6.9983000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="11">
+      <c r="B20" s="5">
         <v>25</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="5">
         <v>50</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="5">
         <v>100</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="5">
         <v>150</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="5">
         <v>200</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="5">
         <v>250</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="5">
         <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="5">
         <v>2</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="6">
         <v>11.117000000000001</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="6">
         <v>11.1561</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="6">
         <v>11.166</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="6">
         <v>11.1678</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="6">
         <v>11.1684</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="6">
         <v>11.168699999999999</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="6">
         <v>11.168900000000001</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="5">
         <v>4</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="6">
         <v>10.9747</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="6">
         <v>11.052899999999999</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="6">
         <v>11.0724</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="6">
         <v>11.076000000000001</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="6">
         <v>11.077199999999999</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="6">
         <v>11.0778</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="6">
         <v>11.078099999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="5">
         <v>6</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="6">
         <v>10.775700000000001</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="6">
         <v>10.944800000000001</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="6">
         <v>10.9863</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="6">
         <v>10.9939</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="6">
         <v>10.996600000000001</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="6">
         <v>10.9978</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="6">
         <v>10.9985</v>
       </c>
       <c r="I23">
@@ -4928,54 +5884,54 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="5">
         <v>8</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="6">
         <v>9.1020000000000003</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="6">
         <v>10.9015</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="6">
         <v>10.9755</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="6">
         <v>10.989100000000001</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="6">
         <v>10.9939</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="6">
         <v>10.9961</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="6">
         <v>10.997299999999999</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="5">
         <v>10</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="6">
         <v>10.3499</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="6">
         <v>10.8453</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="6">
         <v>10.9617</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="6">
         <v>10.98302</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="6">
         <v>10.990500000000001</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="6">
         <v>10.993399999999999</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="6">
         <v>10.995799999999999</v>
       </c>
     </row>
@@ -5042,7 +5998,7 @@
         <v>16021</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>150</v>
       </c>
@@ -5050,7 +6006,7 @@
         <v>36435</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>200</v>
       </c>
@@ -5058,7 +6014,7 @@
         <v>65414</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>300</v>
       </c>
@@ -5066,29 +6022,53 @@
         <v>148329</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>500</v>
       </c>
       <c r="B36">
         <v>416490</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f>1000*1000*1.7</f>
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1000</v>
       </c>
+      <c r="G37">
+        <f>11.6*1000</f>
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <f>116</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>1688513</v>
+      </c>
+      <c r="G39">
+        <f>G36-G37+G38</f>
+        <v>1688516</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B1:H1"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>